--- a/examples/SBB/model_parsing_diagnostics.SBB_case2.xlsx
+++ b/examples/SBB/model_parsing_diagnostics.SBB_case2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
   <si>
     <t>label</t>
   </si>
@@ -1026,6 +1026,24 @@
     <t>LMohID</t>
   </si>
   <si>
+    <t>O2ID</t>
+  </si>
+  <si>
+    <t>NO3ID</t>
+  </si>
+  <si>
+    <t>CH4ID</t>
+  </si>
+  <si>
+    <t>NO2ID</t>
+  </si>
+  <si>
+    <t>CaID</t>
+  </si>
+  <si>
+    <t>H4SiO4ID</t>
+  </si>
+  <si>
     <t>TMnID</t>
   </si>
   <si>
@@ -1035,21 +1053,6 @@
     <t>TNH4ID</t>
   </si>
   <si>
-    <t>O2ID</t>
-  </si>
-  <si>
-    <t>NO3ID</t>
-  </si>
-  <si>
-    <t>CH4ID</t>
-  </si>
-  <si>
-    <t>NO2ID</t>
-  </si>
-  <si>
-    <t>CaID</t>
-  </si>
-  <si>
     <t>MolID</t>
   </si>
   <si>
@@ -1062,9 +1065,6 @@
     <t>THSO4ID</t>
   </si>
   <si>
-    <t>H4SiO4ID</t>
-  </si>
-  <si>
     <t>HID</t>
   </si>
   <si>
@@ -1642,9 +1642,6 @@
   </si>
   <si>
     <t>Cl</t>
-  </si>
-  <si>
-    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,Fe_CO3_OH_aq,FeHS_aq,FeS_aq</t>
   </si>
   <si>
     <t>KNH4_ads</t>
@@ -2316,7 +2313,7 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -2426,7 +2423,7 @@
         <v>36</v>
       </c>
       <c r="J6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -2462,7 +2459,7 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -2534,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -2644,7 +2641,7 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -2680,7 +2677,7 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -2752,7 +2749,7 @@
         <v>21</v>
       </c>
       <c r="J15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -2862,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -2898,7 +2895,7 @@
         <v>26</v>
       </c>
       <c r="J19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
@@ -2934,7 +2931,7 @@
         <v>21</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -3116,7 +3113,7 @@
         <v>36</v>
       </c>
       <c r="J25">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -3152,7 +3149,7 @@
         <v>26</v>
       </c>
       <c r="J26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -3188,7 +3185,7 @@
         <v>36</v>
       </c>
       <c r="J27">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -3370,7 +3367,7 @@
         <v>36</v>
       </c>
       <c r="J32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -3406,7 +3403,7 @@
         <v>26</v>
       </c>
       <c r="J33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -3442,7 +3439,7 @@
         <v>36</v>
       </c>
       <c r="J34">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -3514,7 +3511,7 @@
         <v>26</v>
       </c>
       <c r="J36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -3624,7 +3621,7 @@
         <v>36</v>
       </c>
       <c r="J39">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
@@ -3660,7 +3657,7 @@
         <v>26</v>
       </c>
       <c r="J40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
@@ -3840,7 +3837,7 @@
         <v>21</v>
       </c>
       <c r="J45">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -3878,7 +3875,7 @@
         <v>36</v>
       </c>
       <c r="J46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
         <v>21</v>
@@ -3914,7 +3911,7 @@
         <v>26</v>
       </c>
       <c r="J47">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
@@ -3950,7 +3947,7 @@
         <v>21</v>
       </c>
       <c r="J48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
@@ -3986,7 +3983,7 @@
         <v>21</v>
       </c>
       <c r="J49">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -4022,7 +4019,7 @@
         <v>21</v>
       </c>
       <c r="J50">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -4058,7 +4055,7 @@
         <v>21</v>
       </c>
       <c r="J51">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
@@ -4096,7 +4093,7 @@
         <v>36</v>
       </c>
       <c r="J52">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
         <v>21</v>
@@ -4132,7 +4129,7 @@
         <v>21</v>
       </c>
       <c r="J53">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
@@ -4204,7 +4201,7 @@
         <v>21</v>
       </c>
       <c r="J55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
@@ -4240,7 +4237,7 @@
         <v>36</v>
       </c>
       <c r="J56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
         <v>21</v>
@@ -4348,7 +4345,7 @@
         <v>21</v>
       </c>
       <c r="J59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
@@ -4384,7 +4381,7 @@
         <v>36</v>
       </c>
       <c r="J60">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
         <v>82</v>
@@ -4492,7 +4489,7 @@
         <v>21</v>
       </c>
       <c r="J63">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
@@ -4528,7 +4525,7 @@
         <v>36</v>
       </c>
       <c r="J64">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K64" t="s">
         <v>21</v>
@@ -4636,7 +4633,7 @@
         <v>21</v>
       </c>
       <c r="J67">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K67" t="s">
         <v>21</v>
@@ -4672,7 +4669,7 @@
         <v>36</v>
       </c>
       <c r="J68">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K68" t="s">
         <v>82</v>
@@ -4780,7 +4777,7 @@
         <v>21</v>
       </c>
       <c r="J71">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K71" t="s">
         <v>21</v>
@@ -4852,7 +4849,7 @@
         <v>26</v>
       </c>
       <c r="J73">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K73" t="s">
         <v>21</v>
@@ -4924,7 +4921,7 @@
         <v>21</v>
       </c>
       <c r="J75">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
@@ -5032,7 +5029,7 @@
         <v>26</v>
       </c>
       <c r="J78">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
@@ -5104,7 +5101,7 @@
         <v>21</v>
       </c>
       <c r="J80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K80" t="s">
         <v>21</v>
@@ -5140,7 +5137,7 @@
         <v>21</v>
       </c>
       <c r="J81">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
@@ -5212,7 +5209,7 @@
         <v>21</v>
       </c>
       <c r="J83">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
@@ -5250,7 +5247,7 @@
         <v>36</v>
       </c>
       <c r="J84">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
         <v>21</v>
@@ -5286,7 +5283,7 @@
         <v>21</v>
       </c>
       <c r="J85">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
@@ -5322,7 +5319,7 @@
         <v>36</v>
       </c>
       <c r="J86">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
@@ -5430,7 +5427,7 @@
         <v>21</v>
       </c>
       <c r="J89">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
@@ -5466,7 +5463,7 @@
         <v>36</v>
       </c>
       <c r="J90">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K90" t="s">
         <v>21</v>
@@ -5574,7 +5571,7 @@
         <v>21</v>
       </c>
       <c r="J93">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K93" t="s">
         <v>21</v>
@@ -5646,7 +5643,7 @@
         <v>26</v>
       </c>
       <c r="J95">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K95" t="s">
         <v>21</v>
@@ -5684,7 +5681,7 @@
         <v>36</v>
       </c>
       <c r="J96">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
         <v>21</v>
@@ -5720,7 +5717,7 @@
         <v>26</v>
       </c>
       <c r="J97">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K97" t="s">
         <v>21</v>
@@ -5756,7 +5753,7 @@
         <v>21</v>
       </c>
       <c r="J98">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K98" t="s">
         <v>21</v>
@@ -5936,7 +5933,7 @@
         <v>36</v>
       </c>
       <c r="J103">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K103" t="s">
         <v>21</v>
@@ -5972,7 +5969,7 @@
         <v>36</v>
       </c>
       <c r="J104">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K104" t="s">
         <v>21</v>
@@ -6188,7 +6185,7 @@
         <v>36</v>
       </c>
       <c r="J110">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K110" t="s">
         <v>21</v>
@@ -6332,7 +6329,7 @@
         <v>36</v>
       </c>
       <c r="J114">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K114" t="s">
         <v>21</v>
@@ -6548,7 +6545,7 @@
         <v>36</v>
       </c>
       <c r="J120">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K120" t="s">
         <v>21</v>
@@ -6620,7 +6617,7 @@
         <v>36</v>
       </c>
       <c r="J122">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K122" t="s">
         <v>21</v>
@@ -6800,7 +6797,7 @@
         <v>21</v>
       </c>
       <c r="J127">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K127" t="s">
         <v>21</v>
@@ -6872,7 +6869,7 @@
         <v>21</v>
       </c>
       <c r="J129">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K129" t="s">
         <v>21</v>
@@ -7016,7 +7013,7 @@
         <v>36</v>
       </c>
       <c r="J133">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K133" t="s">
         <v>21</v>
@@ -7088,7 +7085,7 @@
         <v>36</v>
       </c>
       <c r="J135">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K135" t="s">
         <v>21</v>
@@ -7232,7 +7229,7 @@
         <v>36</v>
       </c>
       <c r="J139">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K139" t="s">
         <v>21</v>
@@ -7304,7 +7301,7 @@
         <v>36</v>
       </c>
       <c r="J141">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K141" t="s">
         <v>21</v>
@@ -7448,7 +7445,7 @@
         <v>21</v>
       </c>
       <c r="J145">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K145" t="s">
         <v>21</v>
@@ -7484,7 +7481,7 @@
         <v>21</v>
       </c>
       <c r="J146">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K146" t="s">
         <v>21</v>
@@ -7520,7 +7517,7 @@
         <v>21</v>
       </c>
       <c r="J147">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K147" t="s">
         <v>21</v>
@@ -7556,7 +7553,7 @@
         <v>26</v>
       </c>
       <c r="J148">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K148" t="s">
         <v>21</v>
@@ -7700,7 +7697,7 @@
         <v>36</v>
       </c>
       <c r="J152">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K152" t="s">
         <v>21</v>
@@ -7772,7 +7769,7 @@
         <v>36</v>
       </c>
       <c r="J154">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K154" t="s">
         <v>21</v>
@@ -14561,106 +14558,106 @@
         <v>531</v>
       </c>
       <c r="C5" t="s">
-        <v>537</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s">
         <v>531</v>
       </c>
       <c r="C6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" t="s">
         <v>540</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>541</v>
-      </c>
-      <c r="C7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" t="s">
         <v>543</v>
-      </c>
-      <c r="B8" t="s">
-        <v>541</v>
-      </c>
-      <c r="C8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C9" t="s">
         <v>545</v>
-      </c>
-      <c r="B9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" t="s">
         <v>547</v>
-      </c>
-      <c r="B10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C10" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" t="s">
         <v>549</v>
-      </c>
-      <c r="B11" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C12" t="s">
         <v>551</v>
-      </c>
-      <c r="B12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C12" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C13" t="s">
         <v>553</v>
-      </c>
-      <c r="B13" t="s">
-        <v>541</v>
-      </c>
-      <c r="C13" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" t="s">
         <v>555</v>
-      </c>
-      <c r="B14" t="s">
-        <v>541</v>
-      </c>
-      <c r="C14" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14668,10 +14665,10 @@
         <v>517</v>
       </c>
       <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" t="s">
         <v>557</v>
-      </c>
-      <c r="C15" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14679,10 +14676,10 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14690,117 +14687,117 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B18" t="s">
+        <v>556</v>
+      </c>
+      <c r="C18" t="s">
         <v>561</v>
-      </c>
-      <c r="B18" t="s">
-        <v>557</v>
-      </c>
-      <c r="C18" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B19" t="s">
+        <v>556</v>
+      </c>
+      <c r="C19" t="s">
         <v>563</v>
-      </c>
-      <c r="B19" t="s">
-        <v>557</v>
-      </c>
-      <c r="C19" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22" t="s">
+        <v>556</v>
+      </c>
+      <c r="C22" t="s">
         <v>567</v>
-      </c>
-      <c r="B22" t="s">
-        <v>557</v>
-      </c>
-      <c r="C22" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>568</v>
+      </c>
+      <c r="B23" t="s">
+        <v>556</v>
+      </c>
+      <c r="C23" t="s">
         <v>569</v>
-      </c>
-      <c r="B23" t="s">
-        <v>557</v>
-      </c>
-      <c r="C23" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" t="s">
         <v>571</v>
-      </c>
-      <c r="B24" t="s">
-        <v>557</v>
-      </c>
-      <c r="C24" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>572</v>
+      </c>
+      <c r="B25" t="s">
+        <v>556</v>
+      </c>
+      <c r="C25" t="s">
         <v>573</v>
-      </c>
-      <c r="B25" t="s">
-        <v>557</v>
-      </c>
-      <c r="C25" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>574</v>
+      </c>
+      <c r="B26" t="s">
+        <v>556</v>
+      </c>
+      <c r="C26" t="s">
         <v>575</v>
-      </c>
-      <c r="B26" t="s">
-        <v>557</v>
-      </c>
-      <c r="C26" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -14808,10 +14805,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -14819,10 +14816,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C29" t="s">
         <v>79</v>
@@ -14830,10 +14827,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C30" t="s">
         <v>80</v>
@@ -14841,10 +14838,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C31" t="s">
         <v>83</v>
@@ -14852,10 +14849,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C32" t="s">
         <v>85</v>
@@ -14863,10 +14860,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
@@ -14874,10 +14871,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
@@ -14885,10 +14882,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
@@ -14896,10 +14893,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C36" t="s">
         <v>92</v>
@@ -14907,10 +14904,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C37" t="s">
         <v>93</v>
@@ -14918,10 +14915,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C38" t="s">
         <v>96</v>
@@ -14929,10 +14926,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C39" t="s">
         <v>99</v>
@@ -14940,10 +14937,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
@@ -14951,10 +14948,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
@@ -14962,10 +14959,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C42" t="s">
         <v>101</v>
@@ -14973,10 +14970,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C43" t="s">
         <v>102</v>
@@ -14984,10 +14981,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
@@ -14995,10 +14992,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C45" t="s">
         <v>104</v>
@@ -15006,10 +15003,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C46" t="s">
         <v>106</v>
@@ -15017,10 +15014,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C47" t="s">
         <v>108</v>
@@ -15028,10 +15025,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B48" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C48" t="s">
         <v>109</v>
@@ -15039,10 +15036,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C49" t="s">
         <v>113</v>
@@ -15050,10 +15047,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B50" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C50" t="s">
         <v>114</v>
@@ -15061,10 +15058,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C51" t="s">
         <v>116</v>
@@ -15072,10 +15069,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C52" t="s">
         <v>117</v>
@@ -15083,10 +15080,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B53" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C53" t="s">
         <v>119</v>
@@ -15094,10 +15091,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C54" t="s">
         <v>120</v>
@@ -15105,10 +15102,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C55" t="s">
         <v>123</v>
@@ -15116,10 +15113,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C56" t="s">
         <v>123</v>
@@ -15127,10 +15124,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C57" t="s">
         <v>124</v>
@@ -15138,13 +15135,13 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>606</v>
+      </c>
+      <c r="B58" t="s">
+        <v>556</v>
+      </c>
+      <c r="C58" t="s">
         <v>607</v>
-      </c>
-      <c r="B58" t="s">
-        <v>557</v>
-      </c>
-      <c r="C58" t="s">
-        <v>608</v>
       </c>
     </row>
   </sheetData>
